--- a/xueqiu_stock/stock_index_data/SH000300.xlsx
+++ b/xueqiu_stock/stock_index_data/SH000300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,16 +663,81 @@
       <c r="O3" t="n">
         <v>4268.15</v>
       </c>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
         <v>0.011</v>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
         <v>3450.65</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tue Oct 31 00:50:03 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SH000300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>未开盘</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3583.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+21.38  +0.60%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3592.72</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3554.11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>144000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3554.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3562.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>242973000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4268.15</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3450.65</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
